--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1597,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1644,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1799,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1846,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +2001,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2048,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2179,10 +2203,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2226,28 +2250,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2272,28 +2296,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2381,10 +2405,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2428,28 +2452,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2474,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2583,10 +2607,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2630,28 +2654,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2676,28 +2700,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2785,10 +2809,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2832,28 +2856,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2878,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2987,10 +3011,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3034,28 +3058,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3080,28 +3104,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3189,10 +3213,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3236,28 +3260,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3282,28 +3306,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3391,10 +3415,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3438,28 +3462,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3484,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3593,10 +3617,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3640,28 +3664,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3686,28 +3710,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3824,10 +3848,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3871,28 +3895,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3917,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4026,10 +4050,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4073,28 +4097,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4119,28 +4143,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4228,10 +4252,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4275,28 +4299,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4321,28 +4345,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4459,10 +4483,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4506,28 +4530,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4552,28 +4576,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4661,10 +4685,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4708,28 +4732,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4754,28 +4778,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4863,10 +4887,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4910,28 +4934,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4956,28 +4980,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5065,10 +5089,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5112,28 +5136,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5158,28 +5182,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5267,10 +5291,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5314,28 +5338,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5360,28 +5384,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5469,10 +5493,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5516,28 +5540,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5562,28 +5586,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5671,10 +5695,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5718,28 +5742,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5764,28 +5788,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5873,10 +5897,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5920,28 +5944,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5966,28 +5990,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6104,10 +6128,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6151,28 +6175,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6197,28 +6221,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6364,10 +6388,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6411,28 +6435,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6457,28 +6481,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6595,10 +6619,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6642,28 +6666,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6688,28 +6712,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6797,10 +6821,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6844,28 +6868,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6890,28 +6914,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6999,10 +7023,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7046,28 +7070,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7092,28 +7116,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7230,10 +7254,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7277,28 +7301,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7323,28 +7347,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7432,10 +7456,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7479,28 +7503,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7525,28 +7549,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7634,10 +7658,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7681,28 +7705,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7727,28 +7751,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7836,10 +7860,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7883,28 +7907,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7929,28 +7953,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8038,10 +8062,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8085,28 +8109,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8131,28 +8155,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8298,10 +8322,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8345,28 +8369,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8391,28 +8415,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8500,10 +8524,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8547,28 +8571,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8593,28 +8617,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8731,10 +8755,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8778,28 +8802,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8824,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8962,10 +8986,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9009,28 +9033,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9055,28 +9079,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9164,10 +9188,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9211,28 +9235,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9257,28 +9281,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9366,10 +9390,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9413,28 +9437,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9459,28 +9483,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9539,10 +9563,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
